--- a/FSARanking2021.xlsx
+++ b/FSARanking2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DC16DD-8FE8-4DC2-BF9B-8767E0B5B884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3190C2DC-085B-4F6A-B07D-5F9736F111AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4699" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="445">
   <si>
     <t>Ranking</t>
   </si>
@@ -1727,8 +1727,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q551" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A1:Q551" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93D31973-47C3-49E5-BFF6-960CEA57821A}" name="Table1" displayName="Table1" ref="A1:Q573" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A1:Q573" xr:uid="{DB7F2CE5-06E2-4DC3-87BA-7ED61CEBB3B2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q415">
     <sortCondition ref="E2:E415"/>
     <sortCondition ref="H2:H415"/>
@@ -2157,11 +2157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q551"/>
+  <dimension ref="A1:Q573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A521" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N539" sqref="N539"/>
+      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E566" sqref="E566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="M5" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N5" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="M6" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="M11" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="M13" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="M14" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="M23" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -4172,7 +4172,7 @@
       </c>
       <c r="M33" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="M35" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N35" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -4355,7 +4355,7 @@
       </c>
       <c r="M36" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N36" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -4477,7 +4477,7 @@
       </c>
       <c r="M38" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="M39" s="17">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" s="17">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="M82" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N82" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7283,7 +7283,7 @@
       </c>
       <c r="M84" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N84" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="M89" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N89" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="M90" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N90" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -7710,7 +7710,7 @@
       </c>
       <c r="M91" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N91" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8015,7 +8015,7 @@
       </c>
       <c r="M96" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N96" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -8869,7 +8869,7 @@
       </c>
       <c r="M110" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N110" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="M113" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N113" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="M118" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="M121" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N121" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9776,7 +9776,7 @@
       </c>
       <c r="M125" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -9836,7 +9836,7 @@
       </c>
       <c r="M126" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N126" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="M196" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N196" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14349,7 +14349,7 @@
       </c>
       <c r="M200" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N200" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14471,7 +14471,7 @@
       </c>
       <c r="M202" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N202" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14532,7 +14532,7 @@
       </c>
       <c r="M203" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N203" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14654,7 +14654,7 @@
       </c>
       <c r="M205" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N205" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14776,7 +14776,7 @@
       </c>
       <c r="M207" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N207" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="M210" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N210" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="M214" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N214" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -15874,7 +15874,7 @@
       </c>
       <c r="M225" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N225" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="M228" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N228" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16118,7 +16118,7 @@
       </c>
       <c r="M229" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N229" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16238,7 +16238,7 @@
       </c>
       <c r="M231" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N231" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16358,7 +16358,7 @@
       </c>
       <c r="M233" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N233" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16658,7 +16658,7 @@
       </c>
       <c r="M238" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N238" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16718,7 +16718,7 @@
       </c>
       <c r="M239" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N239" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16778,7 +16778,7 @@
       </c>
       <c r="M240" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N240" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -16898,7 +16898,7 @@
       </c>
       <c r="M242" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N242" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17018,7 +17018,7 @@
       </c>
       <c r="M244" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N244" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17138,7 +17138,7 @@
       </c>
       <c r="M246" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N246" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17198,7 +17198,7 @@
       </c>
       <c r="M247" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N247" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17258,7 +17258,7 @@
       </c>
       <c r="M248" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N248" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17378,7 +17378,7 @@
       </c>
       <c r="M250" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N250" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -17498,7 +17498,7 @@
       </c>
       <c r="M252" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N252" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -18218,11 +18218,11 @@
       </c>
       <c r="M264" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N264" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O264" s="17">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L264=0,VLOOKUP(C264,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C264,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -18234,7 +18234,7 @@
       </c>
       <c r="Q264" s="18">
         <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.25">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="M313" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N313" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21264,7 +21264,7 @@
       </c>
       <c r="M314" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N314" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="M316" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N316" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21508,7 +21508,7 @@
       </c>
       <c r="M318" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N318" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21569,7 +21569,7 @@
       </c>
       <c r="M319" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N319" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21630,7 +21630,7 @@
       </c>
       <c r="M320" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N320" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -21691,7 +21691,7 @@
       </c>
       <c r="M321" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N321" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22423,7 +22423,7 @@
       </c>
       <c r="M333" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N333" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22545,7 +22545,7 @@
       </c>
       <c r="M335" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N335" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22606,7 +22606,7 @@
       </c>
       <c r="M336" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N336" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22728,7 +22728,7 @@
       </c>
       <c r="M338" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N338" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22789,7 +22789,7 @@
       </c>
       <c r="M339" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N339" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -22850,7 +22850,7 @@
       </c>
       <c r="M340" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N340" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -26811,7 +26811,7 @@
       </c>
       <c r="M405" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N405" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -26929,7 +26929,7 @@
       </c>
       <c r="M407" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N407" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27046,7 +27046,7 @@
       </c>
       <c r="M409" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N409" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27105,7 +27105,7 @@
       </c>
       <c r="M410" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N410" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27224,7 +27224,7 @@
       </c>
       <c r="M412" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N412" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27284,7 +27284,7 @@
       </c>
       <c r="M413" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N413" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27344,7 +27344,7 @@
       </c>
       <c r="M414" s="12">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N414" s="12">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27464,7 +27464,7 @@
       </c>
       <c r="M416" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N416" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27584,7 +27584,7 @@
       </c>
       <c r="M418" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N418" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -27644,7 +27644,7 @@
       </c>
       <c r="M419" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N419" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28410,7 +28410,7 @@
       </c>
       <c r="M432" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N432" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28821,7 +28821,7 @@
       </c>
       <c r="M439" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N439" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28880,7 +28880,7 @@
       </c>
       <c r="M440" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N440" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28939,7 +28939,7 @@
       </c>
       <c r="M441" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N441" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -28998,7 +28998,7 @@
       </c>
       <c r="M442" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N442" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29115,7 +29115,7 @@
       </c>
       <c r="M444" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N444" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29175,7 +29175,7 @@
       </c>
       <c r="M445" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N445" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29295,7 +29295,7 @@
       </c>
       <c r="M447" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N447" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29355,7 +29355,7 @@
       </c>
       <c r="M448" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N448" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -29415,7 +29415,7 @@
       </c>
       <c r="M449" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N449" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
@@ -35121,249 +35121,1616 @@
         <v>12</v>
       </c>
     </row>
-    <row r="545" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A545" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B545" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C545" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="D545" s="12">
+        <v>2</v>
+      </c>
+      <c r="E545" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F545" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G545" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H545" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I545" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J545" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K545" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L545" s="25">
+        <v>0</v>
+      </c>
+      <c r="M545" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N545" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O545" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="P545" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q545" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A546" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B546" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C546" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D546" s="12">
+        <v>2</v>
+      </c>
+      <c r="E546" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F546" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G546" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H546" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I546" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J546" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K546" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L546" s="25">
+        <v>0</v>
+      </c>
+      <c r="M546" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N546" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O546" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L546=0,VLOOKUP(C546,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C546,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="P546" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q546" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A547" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B547" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C547" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D547" s="12">
+        <v>1</v>
+      </c>
+      <c r="E547" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F547" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G547" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H547" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I547" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J547" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K547" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L547" s="25">
+        <v>0</v>
+      </c>
+      <c r="M547" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N547" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O547" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L547=0,VLOOKUP(C547,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C547,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+      <c r="P547" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q547" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A548" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B548" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C548" s="3">
+        <v>1</v>
+      </c>
+      <c r="D548" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E548" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F548" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G548" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H548" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I548" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J548" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K548" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L548" s="25">
+        <v>0</v>
+      </c>
+      <c r="M548" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N548" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O548" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L548=0,VLOOKUP(C548,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C548,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P548" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q548" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A549" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B549" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C549" s="3">
+        <v>2</v>
+      </c>
+      <c r="D549" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E549" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F549" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G549" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H549" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I549" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J549" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K549" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L549" s="25">
+        <v>0</v>
+      </c>
+      <c r="M549" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N549" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O549" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L549=0,VLOOKUP(C549,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C549,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P549" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q549" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="550" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A550" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B550" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C550" s="3">
+        <v>3</v>
+      </c>
+      <c r="D550" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E550" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F550" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G550" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H550" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I550" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J550" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K550" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L550" s="25">
+        <v>0</v>
+      </c>
+      <c r="M550" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N550" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O550" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L550=0,VLOOKUP(C550,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C550,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P550" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q550" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="551" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A551" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B551" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C551" s="3">
+        <v>3</v>
+      </c>
+      <c r="D551" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E551" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F551" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G551" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H551" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I551" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J551" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K551" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L551" s="25">
+        <v>0</v>
+      </c>
+      <c r="M551" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N551" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O551" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L551=0,VLOOKUP(C551,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C551,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P551" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q551" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="552" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A552" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B552" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C552" s="3">
+        <v>5</v>
+      </c>
+      <c r="D552" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E552" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F552" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G552" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H552" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I552" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J552" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K552" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L552" s="25">
+        <v>0</v>
+      </c>
+      <c r="M552" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N552" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O552" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L552=0,VLOOKUP(C552,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C552,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P552" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q552" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="553" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A553" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B553" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C553" s="3">
+        <v>6</v>
+      </c>
+      <c r="D553" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E553" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F553" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G553" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H553" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I553" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J553" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K553" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L553" s="25">
+        <v>0</v>
+      </c>
+      <c r="M553" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N553" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O553" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L553=0,VLOOKUP(C553,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C553,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P553" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q553" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A554" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B554" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C554" s="3">
+        <v>7</v>
+      </c>
+      <c r="D554" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E554" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F554" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G554" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H554" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I554" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J554" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K554" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L554" s="25">
+        <v>0</v>
+      </c>
+      <c r="M554" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N554" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O554" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L554=0,VLOOKUP(C554,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C554,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P554" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q554" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="555" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A555" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B555" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C555" s="3">
+        <v>8</v>
+      </c>
+      <c r="D555" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>8</v>
+      </c>
+      <c r="E555" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F555" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G555" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H555" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I555" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J555" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K555" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L555" s="25">
+        <v>0</v>
+      </c>
+      <c r="M555" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>4</v>
+      </c>
+      <c r="N555" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O555" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L555=0,VLOOKUP(C555,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C555,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P555" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q555" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A556" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B556" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C556" s="3">
+        <v>1</v>
+      </c>
+      <c r="D556" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E556" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F556" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G556" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H556" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I556" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J556" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K556" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L556" s="25">
+        <v>0</v>
+      </c>
+      <c r="M556" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N556" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O556" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L556=0,VLOOKUP(C556,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C556,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P556" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q556" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="557" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A557" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B557" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C557" s="3">
+        <v>2</v>
+      </c>
+      <c r="D557" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E557" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F557" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G557" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H557" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I557" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J557" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K557" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L557" s="25">
+        <v>0</v>
+      </c>
+      <c r="M557" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N557" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O557" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L557=0,VLOOKUP(C557,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C557,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P557" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q557" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="558" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A558" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B558" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C558" s="3">
+        <v>3</v>
+      </c>
+      <c r="D558" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E558" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F558" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G558" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H558" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I558" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J558" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K558" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L558" s="25">
+        <v>0</v>
+      </c>
+      <c r="M558" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N558" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O558" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L558=0,VLOOKUP(C558,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C558,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P558" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q558" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="559" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A559" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B559" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C559" s="3">
+        <v>3</v>
+      </c>
+      <c r="D559" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E559" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F559" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G559" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H559" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I559" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J559" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K559" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L559" s="25">
+        <v>0</v>
+      </c>
+      <c r="M559" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N559" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O559" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L559=0,VLOOKUP(C559,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C559,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P559" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q559" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="560" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A560" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B560" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C560" s="3">
+        <v>5</v>
+      </c>
+      <c r="D560" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>5</v>
+      </c>
+      <c r="E560" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F560" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G560" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H560" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I560" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J560" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K560" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L560" s="25">
+        <v>0</v>
+      </c>
+      <c r="M560" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N560" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O560" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L560=0,VLOOKUP(C560,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C560,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>12</v>
+      </c>
+      <c r="P560" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q560" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="561" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A561" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B561" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C561" s="3">
+        <v>1</v>
+      </c>
+      <c r="D561" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E561" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F561" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G561" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H561" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I561" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J561" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K561" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L561" s="25">
+        <v>0</v>
+      </c>
+      <c r="M561" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>6</v>
+      </c>
+      <c r="N561" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O561" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L561=0,VLOOKUP(C561,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C561,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P561" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q561" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="562" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A562" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B562" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C562" s="3">
+        <v>2</v>
+      </c>
+      <c r="D562" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E562" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F562" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G562" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H562" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I562" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J562" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K562" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L562" s="25">
+        <v>0</v>
+      </c>
+      <c r="M562" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>1</v>
+      </c>
+      <c r="N562" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O562" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L562=0,VLOOKUP(C562,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C562,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P562" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q562" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="563" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A563" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B563" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C563" s="3">
+        <v>3</v>
+      </c>
+      <c r="D563" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E563" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F563" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G563" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H563" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I563" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J563" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K563" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>AHFC</v>
+      </c>
+      <c r="L563" s="25">
+        <v>0</v>
+      </c>
+      <c r="M563" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N563" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O563" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L563=0,VLOOKUP(C563,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C563,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P563" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q563" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A564" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B564" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C564" s="3">
+        <v>3</v>
+      </c>
+      <c r="D564" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E564" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F564" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G564" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H564" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I564" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J564" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K564" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L564" s="25">
+        <v>0</v>
+      </c>
+      <c r="M564" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N564" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O564" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L564=0,VLOOKUP(C564,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C564,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P564" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q564" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A565" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B565" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C565" s="3">
+        <v>1</v>
+      </c>
+      <c r="D565" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E565" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F565" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G565" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H565" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I565" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J565" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K565" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L565" s="25">
+        <v>0</v>
+      </c>
+      <c r="M565" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N565" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O565" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L565=0,VLOOKUP(C565,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C565,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>28</v>
+      </c>
+      <c r="P565" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q565" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>22.400000000000002</v>
+      </c>
+    </row>
+    <row r="566" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A566" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B566" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C566" s="3">
+        <v>2</v>
+      </c>
+      <c r="D566" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E566" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F566" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G566" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H566" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I566" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J566" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K566" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L566" s="25">
+        <v>0</v>
+      </c>
+      <c r="M566" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>2</v>
+      </c>
+      <c r="N566" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O566" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L566=0,VLOOKUP(C566,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C566,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>23</v>
+      </c>
+      <c r="P566" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q566" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>18.400000000000002</v>
+      </c>
+    </row>
+    <row r="567" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A567" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B567" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C567" s="3">
+        <v>3</v>
+      </c>
+      <c r="D567" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E567" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F567" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G567" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H567" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I567" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J567" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K567" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L567" s="25">
+        <v>0</v>
+      </c>
+      <c r="M567" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>3</v>
+      </c>
+      <c r="N567" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O567" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L567=0,VLOOKUP(C567,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C567,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P567" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q567" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A568" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B568" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C568" s="3">
+        <v>3</v>
+      </c>
+      <c r="D568" s="12">
+        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
+        <v>4</v>
+      </c>
+      <c r="E568" s="22">
+        <v>44521</v>
+      </c>
+      <c r="F568" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="G568" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H568" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="I568" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J568" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K568" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L568" s="25">
+        <v>0</v>
+      </c>
+      <c r="M568" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
+        <v>5</v>
+      </c>
+      <c r="N568" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O568" s="17">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L568=0,VLOOKUP(C568,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C568,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>18</v>
+      </c>
+      <c r="P568" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q568" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D569" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E545" s="22"/>
-      <c r="F545" s="23"/>
-      <c r="G545" s="10"/>
-      <c r="J545" s="13"/>
-      <c r="K545" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="E569" s="22"/>
+      <c r="F569" s="23"/>
+      <c r="G569" s="10"/>
+      <c r="J569" s="13"/>
+      <c r="K569" s="24" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L569" s="25"/>
+      <c r="M569" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="L545" s="25"/>
-      <c r="M545" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N545" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O545" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L545=0,VLOOKUP(C545,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C545,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N569" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O569" s="17" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L569=0,VLOOKUP(C569,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C569,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P569" s="17" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="P545" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q545" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="546" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D546" s="12">
+      <c r="Q569" s="18" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="570" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D570" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E546" s="22"/>
-      <c r="F546" s="23"/>
-      <c r="G546" s="10"/>
-      <c r="J546" s="13"/>
-      <c r="K546" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="E570" s="22"/>
+      <c r="F570" s="23"/>
+      <c r="G570" s="10"/>
+      <c r="J570" s="13"/>
+      <c r="K570" s="24" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L570" s="25"/>
+      <c r="M570" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="L546" s="25"/>
-      <c r="M546" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N546" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O546" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L546=0,VLOOKUP(C546,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C546,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N570" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O570" s="17" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L570=0,VLOOKUP(C570,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C570,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P570" s="17" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="P546" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q546" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="547" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D547" s="12">
+      <c r="Q570" s="18" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="571" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D571" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E547" s="22"/>
-      <c r="F547" s="23"/>
-      <c r="G547" s="10"/>
-      <c r="J547" s="13"/>
-      <c r="K547" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="E571" s="22"/>
+      <c r="F571" s="23"/>
+      <c r="G571" s="10"/>
+      <c r="J571" s="13"/>
+      <c r="K571" s="24" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L571" s="25"/>
+      <c r="M571" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="L547" s="25"/>
-      <c r="M547" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N547" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O547" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L547=0,VLOOKUP(C547,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C547,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N571" s="20" t="e">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O571" s="17" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L571=0,VLOOKUP(C571,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C571,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P571" s="17" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="P547" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q547" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="548" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D548" s="12">
+      <c r="Q571" s="18" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="572" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D572" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E548" s="22"/>
-      <c r="F548" s="23"/>
-      <c r="G548" s="10"/>
-      <c r="J548" s="13"/>
-      <c r="K548" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="E572" s="22"/>
+      <c r="F572" s="23"/>
+      <c r="G572" s="10"/>
+      <c r="J572" s="13"/>
+      <c r="K572" s="24" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L572" s="25"/>
+      <c r="M572" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="L548" s="25"/>
-      <c r="M548" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N548" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O548" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L548=0,VLOOKUP(C548,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C548,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N572" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O572" s="17" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L572=0,VLOOKUP(C572,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C572,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P572" s="17" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="P548" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q548" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="549" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D549" s="12">
+      <c r="Q572" s="18" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="573" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D573" s="12">
         <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
         <v>0</v>
       </c>
-      <c r="E549" s="22"/>
-      <c r="F549" s="23"/>
-      <c r="G549" s="10"/>
-      <c r="J549" s="13"/>
-      <c r="K549" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+      <c r="E573" s="22"/>
+      <c r="F573" s="23"/>
+      <c r="G573" s="10"/>
+      <c r="J573" s="13"/>
+      <c r="K573" s="24" t="e">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L573" s="25"/>
+      <c r="M573" s="20">
+        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="L549" s="25"/>
-      <c r="M549" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N549" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O549" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L549=0,VLOOKUP(C549,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C549,'Ranking Values'!A:C,3,FALSE))))</f>
+      <c r="N573" s="20" t="e">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O573" s="17" t="e">
+        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L573=0,VLOOKUP(C573,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C573,'Ranking Values'!A:C,3,FALSE))))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P573" s="17" t="e">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
         <v>#N/A</v>
       </c>
-      <c r="P549" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q549" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="550" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D550" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E550" s="22"/>
-      <c r="F550" s="23"/>
-      <c r="G550" s="10"/>
-      <c r="J550" s="13"/>
-      <c r="K550" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L550" s="25"/>
-      <c r="M550" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N550" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O550" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L550=0,VLOOKUP(C550,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C550,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P550" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q550" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="551" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="D551" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E551" s="22"/>
-      <c r="F551" s="23"/>
-      <c r="G551" s="10"/>
-      <c r="J551" s="13"/>
-      <c r="K551" s="24">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L551" s="25"/>
-      <c r="M551" s="20">
-        <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N551" s="20">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>1</v>
-      </c>
-      <c r="O551" s="17" t="e">
-        <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L551=0,VLOOKUP(C551,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C551,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="P551" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q551" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#N/A</v>
+      <c r="Q573" s="18" t="e">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
@@ -35380,8 +36747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14168-6494-43D4-9A11-FCF7523BC495}">
   <dimension ref="A1:L236"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="E232" sqref="E232"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/FSARanking2021.xlsx
+++ b/FSARanking2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erwin\Dropbox\Competitions\GitHub\FencingSAResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3190C2DC-085B-4F6A-B07D-5F9736F111AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7593170-84F1-4429-B056-E0E3DD32F099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4995" yWindow="1140" windowWidth="20550" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="17" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4870" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4898" uniqueCount="446">
   <si>
     <t>Ranking</t>
   </si>
@@ -1380,6 +1380,9 @@
   <si>
     <t>Northey</t>
   </si>
+  <si>
+    <t>National Champs</t>
+  </si>
 </sst>
 </file>
 
@@ -2160,8 +2163,8 @@
   <dimension ref="A1:Q573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A542" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E566" sqref="E566"/>
+      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K577" sqref="K577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36559,143 +36562,239 @@
       </c>
     </row>
     <row r="569" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A569" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B569" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C569" s="3">
+        <v>6</v>
+      </c>
       <c r="D569" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E569" s="22"/>
-      <c r="F569" s="23"/>
-      <c r="G569" s="10"/>
-      <c r="J569" s="13"/>
-      <c r="K569" s="24" t="e">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L569" s="25"/>
+        <v>42</v>
+      </c>
+      <c r="E569" s="22">
+        <v>44545</v>
+      </c>
+      <c r="F569" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G569" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H569" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I569" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J569" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="K569" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L569" s="25">
+        <v>1</v>
+      </c>
       <c r="M569" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N569" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
-      <c r="O569" s="17" t="e">
+      <c r="O569" s="17">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L569=0,VLOOKUP(C569,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C569,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P569" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q569" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#VALUE!</v>
+        <v>14</v>
+      </c>
+      <c r="P569" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.4</v>
+      </c>
+      <c r="Q569" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>19.599999999999998</v>
       </c>
     </row>
     <row r="570" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A570" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B570" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C570" s="3">
+        <v>5</v>
+      </c>
       <c r="D570" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E570" s="22"/>
-      <c r="F570" s="23"/>
-      <c r="G570" s="10"/>
-      <c r="J570" s="13"/>
-      <c r="K570" s="24" t="e">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L570" s="25"/>
+        <v>23</v>
+      </c>
+      <c r="E570" s="22">
+        <v>44545</v>
+      </c>
+      <c r="F570" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G570" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H570" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I570" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J570" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K570" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L570" s="25">
+        <v>1</v>
+      </c>
       <c r="M570" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N570" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
-      <c r="O570" s="17" t="e">
+      <c r="O570" s="17">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L570=0,VLOOKUP(C570,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C570,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P570" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q570" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#VALUE!</v>
+        <v>14</v>
+      </c>
+      <c r="P570" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q570" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>16.8</v>
       </c>
     </row>
     <row r="571" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A571" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B571" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C571" s="3">
+        <v>22</v>
+      </c>
       <c r="D571" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E571" s="22"/>
-      <c r="F571" s="23"/>
-      <c r="G571" s="10"/>
-      <c r="J571" s="13"/>
-      <c r="K571" s="24" t="e">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L571" s="25"/>
+        <v>23</v>
+      </c>
+      <c r="E571" s="22">
+        <v>44545</v>
+      </c>
+      <c r="F571" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G571" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H571" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="I571" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J571" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K571" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>CSFC</v>
+      </c>
+      <c r="L571" s="25">
+        <v>1</v>
+      </c>
       <c r="M571" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
-      </c>
-      <c r="N571" s="20" t="e">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O571" s="17" t="e">
+        <v>4</v>
+      </c>
+      <c r="N571" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
+      </c>
+      <c r="O571" s="17">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L571=0,VLOOKUP(C571,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C571,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P571" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q571" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#VALUE!</v>
+        <v>4</v>
+      </c>
+      <c r="P571" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1.2</v>
+      </c>
+      <c r="Q571" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>4.8</v>
       </c>
     </row>
     <row r="572" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A572" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B572" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C572" s="3">
+        <v>6</v>
+      </c>
       <c r="D572" s="12">
-        <f>COUNTIFS(E:E,Table1[[#This Row],[EventDate]],G:G,Table1[[#This Row],[EventName]],H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]],J:J,Table1[[#This Row],[Gender]])</f>
-        <v>0</v>
-      </c>
-      <c r="E572" s="22"/>
-      <c r="F572" s="23"/>
-      <c r="G572" s="10"/>
-      <c r="J572" s="13"/>
-      <c r="K572" s="24" t="e">
-        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L572" s="25"/>
+        <v>12</v>
+      </c>
+      <c r="E572" s="22">
+        <v>44545</v>
+      </c>
+      <c r="F572" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G572" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="H572" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="I572" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J572" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="K572" s="24" t="str">
+        <f>VLOOKUP(Table1[[#This Row],[LastName]]&amp;"."&amp;Table1[[#This Row],[FirstName]],Fencers!C:G,4,FALSE)</f>
+        <v>ASC</v>
+      </c>
+      <c r="L572" s="25">
+        <v>1</v>
+      </c>
       <c r="M572" s="20">
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N572" s="20">
         <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
         <v>1</v>
       </c>
-      <c r="O572" s="17" t="e">
+      <c r="O572" s="17">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L572=0,VLOOKUP(C572,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C572,'Ranking Values'!A:C,3,FALSE))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P572" s="17" t="e">
-        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q572" s="18" t="e">
-        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
-        <v>#VALUE!</v>
+        <v>14</v>
+      </c>
+      <c r="P572" s="17">
+        <f>IF(OR(Table1[[#This Row],[Rank]]="Cancelled",Table1[[#This Row],[Rank]]&gt;64),1,VLOOKUP(Table1[[#This Row],[GenderCount]],'Ranking Values'!E:F,2,FALSE))</f>
+        <v>1</v>
+      </c>
+      <c r="Q572" s="18">
+        <f>Table1[[#This Row],[Ranking.Points]]*Table1[[#This Row],[Mulitplier]]*Table1[[#This Row],[NI.Mult]]</f>
+        <v>14</v>
       </c>
     </row>
     <row r="573" spans="1:17" x14ac:dyDescent="0.25">
@@ -36716,9 +36815,9 @@
         <f>COUNTIFS(A:A,Table1[[#This Row],[LastName]],B:B,Table1[[#This Row],[FirstName]],F:F,"S",H:H,Table1[[#This Row],[Category]],I:I,Table1[[#This Row],[Weapon]])</f>
         <v>0</v>
       </c>
-      <c r="N573" s="20" t="e">
-        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
-        <v>#VALUE!</v>
+      <c r="N573" s="20">
+        <f>IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),Table1[[#This Row],[No.S]]&lt;2),0,IF(AND(OR(Table1[[#This Row],[Level]]="I",Table1[[#This Row],[Level]]="N"),OR(Table1[[#This Row],[Category]]="Open",Table1[[#This Row],[Category]]="Veteran"),Table1[[#This Row],[No.S]]&lt;3),0,1))</f>
+        <v>1</v>
       </c>
       <c r="O573" s="17" t="e">
         <f>IF(Table1[[#This Row],[Rank]]="Cancelled",1,IF(Table1[[#This Row],[Rank]]&gt;64,0,IF(L573=0,VLOOKUP(C573,'Ranking Values'!A:C,2,FALSE),VLOOKUP(C573,'Ranking Values'!A:C,3,FALSE))))</f>
@@ -45131,7 +45230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A95" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
